--- a/FiveGuys_Deliverable_1_ProductBacklog_1.xlsx
+++ b/FiveGuys_Deliverable_1_ProductBacklog_1.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="156" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9FB1B37E-8FB7-4400-85E3-37423416EA91}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinophilius\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C258D-292D-4292-9700-EE1B67C254E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -40,15 +45,9 @@
     <t>Story Priority</t>
   </si>
   <si>
-    <t>3 categories, 1= most important/ functionality/security 2= medium importance/options 3 = least importance/aesthetics</t>
-  </si>
-  <si>
     <t>As someone who likes bright and colorful games, I would like to be able to choose the style/color of my pieces and board, so that my board never gets boring.</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>As someone who plays board games offline, I would like to be able to play 2 players on the same device, so I can play with my relatives who don’t have their own tablet.</t>
   </si>
   <si>
@@ -79,9 +78,6 @@
     <t>As a pro player, I would like an analysis system to measure the effectiveness of my turns, so that I can improve and expand on my abilities.</t>
   </si>
   <si>
-    <t>As a variety loving user, I would like additional games to play on the app, so that I don’t get bored of just playing quarto.</t>
-  </si>
-  <si>
     <t>As a competitive user, I would like a ranked option, so that I can play against opponents of similar skill.</t>
   </si>
   <si>
@@ -97,9 +93,6 @@
     <t>As a new player, I would like an option to practice against basic ai, so that I can slowly increase my skill.</t>
   </si>
   <si>
-    <t>As a puzzle lover, I would like a challenge option where the player has to decide the best move, so that I can test my knowledge of the game.</t>
-  </si>
-  <si>
     <t>As a multitasking user, I would like a notification system that tells me when a move is made, so that I know when it is my turn to go.</t>
   </si>
   <si>
@@ -118,9 +111,6 @@
     <t>As a player who loves stats, I would like to see a stat page, so that I can see how many wins and losses I have.</t>
   </si>
   <si>
-    <t>As a variety loving player, I would like to see more mode options, so that I can play more than just basic Quarto.</t>
-  </si>
-  <si>
     <t>As a parent, I would like to have a chat filter option, so that my child does not need to read curse words online.</t>
   </si>
   <si>
@@ -128,6 +118,42 @@
   </si>
   <si>
     <t>As a competitive player, I would like a live coaching option, so that professionals can help me improve my play.</t>
+  </si>
+  <si>
+    <t>Story Status</t>
+  </si>
+  <si>
+    <t>Story points</t>
+  </si>
+  <si>
+    <t>As a variety loving user, I would like multiple gameplay modes, so that I won't get bored of just one.</t>
+  </si>
+  <si>
+    <t>As a puzzle lover, I would like an option where the player has a preset board and has to decide the best move, so that I can test my knowledge of the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Categories of Priority </t>
+  </si>
+  <si>
+    <t>3 = Desired functionality</t>
+  </si>
+  <si>
+    <t>4 = Optional functionality</t>
+  </si>
+  <si>
+    <t>5 = Extended functionality</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>1 = Most important functionality</t>
+  </si>
+  <si>
+    <t>2 = Important functionality</t>
   </si>
 </sst>
 </file>
@@ -497,19 +523,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="131" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,405 +552,577 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="123" customHeight="1">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="228">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="228">
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="192">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="180">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="168">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="216">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
+      <c r="C8">
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="168">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="180">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="156">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="144">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="192">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="180">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="168">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="180">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="204">
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="252">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18">
         <v>6</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="132">
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="216">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="204">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="204">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="144">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="168">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="144">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="156">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26">
         <v>6</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="168">
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="156">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="180">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="180">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D29">
+    <sortCondition ref="A3:A29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FiveGuys_Deliverable_1_ProductBacklog_1.xlsx
+++ b/FiveGuys_Deliverable_1_ProductBacklog_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinophilius\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C258D-292D-4292-9700-EE1B67C254E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF564A-C70A-442A-9F40-5174C29CFB9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -641,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -664,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -687,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -747,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -767,7 +767,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -787,7 +787,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -807,7 +807,7 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -827,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>4</v>
@@ -847,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -867,7 +867,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -887,7 +887,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -907,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -927,7 +927,7 @@
         <v>32</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -947,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -967,7 +967,7 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -987,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1007,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -1027,7 +1027,7 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1047,7 +1047,7 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1067,7 +1067,7 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1087,7 +1087,7 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1107,7 +1107,7 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>5</v>

--- a/FiveGuys_Deliverable_1_ProductBacklog_1.xlsx
+++ b/FiveGuys_Deliverable_1_ProductBacklog_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinophilius\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF564A-C70A-442A-9F40-5174C29CFB9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BABB79B-7E4B-4E3A-B59C-084C00CACA14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18440" yWindow="-17250" windowWidth="19810" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>As a competitive user, I would like a ranked option, so that I can play against opponents of similar skill.</t>
   </si>
   <si>
-    <t>As a potential new user, I would like some sort of built in tutorial, so that I can learn the game without having to look up a guide.</t>
-  </si>
-  <si>
     <t>As someone who wants to support the dev team, I would like an option to buy an ad free version, so I can be rewarded for my support.</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>2 = Important functionality</t>
+  </si>
+  <si>
+    <t>As a potential new user, I would like a built in tutorial, so that I can learn the game without having to look up a guide.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,15 +553,15 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
@@ -572,19 +572,19 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1">
@@ -595,105 +595,105 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -701,19 +701,19 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1">
       <c r="A9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -721,19 +721,19 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1">
       <c r="A10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -741,19 +741,19 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -761,19 +761,19 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -781,19 +781,19 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -801,19 +801,19 @@
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -821,19 +821,19 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -841,19 +841,19 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -861,19 +861,19 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17">
         <v>7</v>
@@ -881,19 +881,19 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -901,19 +901,19 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F19">
         <v>7</v>
@@ -921,19 +921,19 @@
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -941,19 +941,19 @@
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1">
       <c r="A21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -961,19 +961,19 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -981,19 +981,19 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23">
         <v>7</v>
@@ -1001,19 +1001,19 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1">
       <c r="A24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -1021,19 +1021,19 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1">
       <c r="A25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -1041,19 +1041,19 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1">
       <c r="A26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26">
         <v>6</v>
@@ -1061,19 +1061,19 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1">
       <c r="A27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F27">
         <v>7</v>
@@ -1081,19 +1081,19 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1">
       <c r="A28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -1101,26 +1101,26 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1">
       <c r="A29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G29">
     <sortCondition ref="A3:A29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
